--- a/biology/Botanique/Acroceras_amplectens/Acroceras_amplectens.xlsx
+++ b/biology/Botanique/Acroceras_amplectens/Acroceras_amplectens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acroceras amplectens est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Afrique tropicale.
 Ce sont des plantes herbacées annuelles, aux tiges  (chaumes) décombantes, grêles, de 30 à 100 cm de long.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 juillet 2017) :
 Acroceras basicladum Stapf
 Neohusnotia amplectens (Stapf) C.C.Hsu
 Panicum amplectens (Stapf) Pilg., nom. illeg.
@@ -547,11 +561,13 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est parfois cultivée dans certains pays d'Afrique, notamment comme plante fourragère au Tchad pour améliorer les pâturages, ou comme légume en Gambie[3].
-C'est également une mauvaise herbe des rizières[4].
-Dans le nord du Cameroun, cette graminée est consommée en herbe et en grains par le bétail (chevaux, bœufs, moutons, chèvres, etc.)[5] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est parfois cultivée dans certains pays d'Afrique, notamment comme plante fourragère au Tchad pour améliorer les pâturages, ou comme légume en Gambie.
+C'est également une mauvaise herbe des rizières.
+Dans le nord du Cameroun, cette graminée est consommée en herbe et en grains par le bétail (chevaux, bœufs, moutons, chèvres, etc.) 
 </t>
         </is>
       </c>
